--- a/samples_wind/only_available_time/V02Q1940838.xlsx
+++ b/samples_wind/only_available_time/V02Q1940838.xlsx
@@ -527,7 +527,9 @@
       <c r="D2" t="n">
         <v>202007020946</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>202007020946</v>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>서울시</t>
@@ -561,7 +563,9 @@
       <c r="D3" t="n">
         <v>202007021046</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>202007021046</v>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>서울시</t>
